--- a/backend/src/main/resources/templates/excel/ImoList_template.xlsx
+++ b/backend/src/main/resources/templates/excel/ImoList_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\IdeaProjects\eventplanner\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte.schwitters/Projects/privat/eventplanner/backend/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1D530-88A8-4815-9683-098F282E6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB7B63-5ED1-8442-ACF2-907A102A1D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$H$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$J$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,12 +51,6 @@
     <t>1. Name of ship</t>
   </si>
   <si>
-    <t>2. Port of arrival/departure</t>
-  </si>
-  <si>
-    <t>3. Date of arrival/departure</t>
-  </si>
-  <si>
     <t>Grossherzogin Elisabeth / DGEN</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>German</t>
   </si>
   <si>
-    <t xml:space="preserve">     Arrival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Departure</t>
-  </si>
-  <si>
     <t>{{Port_a/d}}</t>
   </si>
   <si>
@@ -98,15 +86,27 @@
   <si>
     <t>11. Nature and No. of identity document</t>
   </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>2. Port of departure / arrival</t>
+  </si>
+  <si>
+    <t>3. Date of departure / arrival</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -543,19 +549,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -582,20 +655,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -626,10 +690,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,141 +762,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E8C082-7D7B-0E8A-E280-3452AE1EADAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="485776"/>
-          <a:ext cx="123825" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>677473</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>122642</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC32FF59-A6F2-43E6-9280-CBD95F3AA52B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2921801" y="485776"/>
-          <a:ext cx="123825" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,36 +1042,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1081,796 +1084,1082 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="15"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="15"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="26"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="147">
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L12. Date and signature by master, authorized agent or officer</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>